--- a/data/fakecsv/dept_SNAP.xlsx
+++ b/data/fakecsv/dept_SNAP.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1141" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1191" uniqueCount="107">
   <si>
     <t>Department</t>
   </si>
@@ -25,7 +25,7 @@
     <t>User ID</t>
   </si>
   <si>
-    <t>Fullname</t>
+    <t>Name</t>
   </si>
   <si>
     <t>System1</t>
@@ -40,280 +40,274 @@
     <t>SNAP</t>
   </si>
   <si>
-    <t>M3LBTPLP84G43U6K2</t>
-  </si>
-  <si>
-    <t>635D76P97ECYFJG9W</t>
-  </si>
-  <si>
-    <t>8WSZP53M57HCBEU8W</t>
-  </si>
-  <si>
-    <t>DGH9A7FY9BCKGCZ27</t>
-  </si>
-  <si>
-    <t>F319TVG75ZAZ3W7H3</t>
-  </si>
-  <si>
-    <t>LLPTY1AX9L4E0RZ5L</t>
-  </si>
-  <si>
-    <t>2ZZDNDB430NNT47S6</t>
-  </si>
-  <si>
-    <t>NJPX3CJS6LN9A8XGN</t>
-  </si>
-  <si>
-    <t>44GSVDALXCK277MFZ</t>
-  </si>
-  <si>
-    <t>D5LEU6732DYK85AKA</t>
-  </si>
-  <si>
-    <t>MNDAVDVL271X8FTW1</t>
-  </si>
-  <si>
-    <t>M1YY268U2AKPABT70</t>
-  </si>
-  <si>
-    <t>20G4JL8WXZB0HZXZ8</t>
-  </si>
-  <si>
-    <t>X4MLL92303J8DKSKT</t>
-  </si>
-  <si>
-    <t>502U9PV31DWSC578J</t>
-  </si>
-  <si>
-    <t>VN3J7PGE0XCYKUSFT</t>
-  </si>
-  <si>
-    <t>8C99FXRH9CA7XDVKH</t>
-  </si>
-  <si>
-    <t>DEP3R8TCXLAG5HJXR</t>
-  </si>
-  <si>
-    <t>LVU03Y3GXJNVZHJR1</t>
-  </si>
-  <si>
-    <t>K7BU5BS448JL3UHS6</t>
-  </si>
-  <si>
-    <t>0CGWMLZF44RXUZVZ4</t>
-  </si>
-  <si>
-    <t>9MR07N63128BXJAMV</t>
-  </si>
-  <si>
-    <t>CZXDY8Z75WKJUKB59</t>
-  </si>
-  <si>
-    <t>MCGCJ6TR2EA62YZMM</t>
-  </si>
-  <si>
-    <t>F9C8BBBP081LYF4TF</t>
-  </si>
-  <si>
-    <t>7VMEKUX83URMXA87U</t>
-  </si>
-  <si>
-    <t>84163WVT5YTJ45U1E</t>
-  </si>
-  <si>
-    <t>2NCTAH756YMY3XAK7</t>
-  </si>
-  <si>
-    <t>9XS13KVG2R3V5V3NC</t>
-  </si>
-  <si>
-    <t>7ZDT2CGB0UWAXGYA3</t>
-  </si>
-  <si>
-    <t>88C3SXXW55DDTE6MH</t>
-  </si>
-  <si>
-    <t>RAT4C07Y275D2YG5S</t>
-  </si>
-  <si>
-    <t>ZTCYA9E6558PKB14D</t>
-  </si>
-  <si>
-    <t>A9J1Y7B3X1TYHR64D</t>
-  </si>
-  <si>
-    <t>6HYSWEEL3ZHTNZYP9</t>
-  </si>
-  <si>
-    <t>8V5TKLPX3XTTX6RUX</t>
-  </si>
-  <si>
-    <t>VS7A5GXE1XDW6WAHS</t>
-  </si>
-  <si>
-    <t>9LUZXLX25VYY1FKH6</t>
-  </si>
-  <si>
-    <t>EC2D4GX43S1UJDNTR</t>
-  </si>
-  <si>
-    <t>HCNZ12FV3BFTX8HCW</t>
-  </si>
-  <si>
-    <t>L282MVP16LNUMZN71</t>
-  </si>
-  <si>
-    <t>KKED5KRX7PA9ZT43X</t>
-  </si>
-  <si>
-    <t>MXE8AN5T6XFLHAXRZ</t>
-  </si>
-  <si>
-    <t>85YVU8VKX9F23UV7D</t>
-  </si>
-  <si>
-    <t>TZ4N8U0D3KE860X40</t>
-  </si>
-  <si>
-    <t>K7ZKRS2M97MXFDA1H</t>
-  </si>
-  <si>
-    <t>Gregory Williams</t>
-  </si>
-  <si>
-    <t>Brent Elliott</t>
-  </si>
-  <si>
-    <t>Melissa Barker</t>
-  </si>
-  <si>
-    <t>Mario Fleming</t>
-  </si>
-  <si>
-    <t>Diana Curry</t>
-  </si>
-  <si>
-    <t>Dominique Vasquez</t>
-  </si>
-  <si>
-    <t>John Gutierrez</t>
-  </si>
-  <si>
-    <t>Brenda Moore</t>
-  </si>
-  <si>
-    <t>Laura Lucas</t>
-  </si>
-  <si>
-    <t>Dr. Emily Cox</t>
-  </si>
-  <si>
-    <t>Jocelyn Stone</t>
-  </si>
-  <si>
-    <t>Tina Gonzalez</t>
-  </si>
-  <si>
-    <t>Lance Jackson</t>
-  </si>
-  <si>
-    <t>Rachel Swanson</t>
-  </si>
-  <si>
-    <t>Katherine Rhodes</t>
-  </si>
-  <si>
-    <t>Laura Hinton</t>
-  </si>
-  <si>
-    <t>Alyssa Johnson</t>
-  </si>
-  <si>
-    <t>Mandy Fleming</t>
-  </si>
-  <si>
-    <t>Raymond Gonzales</t>
-  </si>
-  <si>
-    <t>Jack King</t>
-  </si>
-  <si>
-    <t>William Conrad</t>
-  </si>
-  <si>
-    <t>William Hendrix</t>
-  </si>
-  <si>
-    <t>Julia Williams</t>
-  </si>
-  <si>
-    <t>Brooke Long</t>
-  </si>
-  <si>
-    <t>Jordan Farmer</t>
-  </si>
-  <si>
-    <t>Krista Lloyd</t>
-  </si>
-  <si>
-    <t>John Carr</t>
-  </si>
-  <si>
-    <t>Ruben Ross</t>
-  </si>
-  <si>
-    <t>Sean Fernandez</t>
-  </si>
-  <si>
-    <t>Joseph Miller</t>
-  </si>
-  <si>
-    <t>Rebekah Turner</t>
-  </si>
-  <si>
-    <t>Anna Meyer</t>
-  </si>
-  <si>
-    <t>Sean Carlson</t>
-  </si>
-  <si>
-    <t>Kathleen Strickland</t>
-  </si>
-  <si>
-    <t>James Brown</t>
-  </si>
-  <si>
-    <t>Jodi Fischer</t>
-  </si>
-  <si>
-    <t>Jacob Ware</t>
-  </si>
-  <si>
-    <t>Crystal Harris</t>
-  </si>
-  <si>
-    <t>Vanessa Hall</t>
-  </si>
-  <si>
-    <t>Alexander Munoz</t>
-  </si>
-  <si>
-    <t>Thomas Taylor</t>
-  </si>
-  <si>
-    <t>Jacqueline Myers</t>
-  </si>
-  <si>
-    <t>Adriana Martinez</t>
-  </si>
-  <si>
-    <t>Melissa Howell</t>
-  </si>
-  <si>
-    <t>Pamela Anderson MD</t>
-  </si>
-  <si>
-    <t>Rachael Henry</t>
+    <t>ZFAUXKK96ZM5Z17EH</t>
+  </si>
+  <si>
+    <t>PF8GU1S54KSDM8NDV</t>
+  </si>
+  <si>
+    <t>4VN79KKJ8BKDYZ1AN</t>
+  </si>
+  <si>
+    <t>ZH09GRB41XCBUY5UH</t>
+  </si>
+  <si>
+    <t>UNX8J7UK4SR394FXW</t>
+  </si>
+  <si>
+    <t>SMA91A6G4CGHS27PL</t>
+  </si>
+  <si>
+    <t>F4P4T4NX1RFFFSW6C</t>
+  </si>
+  <si>
+    <t>2AB354ED3NTNDMH2B</t>
+  </si>
+  <si>
+    <t>YG8JVVMA35R8M0CZV</t>
+  </si>
+  <si>
+    <t>23P0WTH50FNZXYS8J</t>
+  </si>
+  <si>
+    <t>K33AFAYV98FB68A1J</t>
+  </si>
+  <si>
+    <t>PNGCBM515TPM8MMUT</t>
+  </si>
+  <si>
+    <t>GD1R817D0F64B0MSD</t>
+  </si>
+  <si>
+    <t>EN9P1KLE02N6B20MV</t>
+  </si>
+  <si>
+    <t>XRT06P4V3T6ZU9YUZ</t>
+  </si>
+  <si>
+    <t>8GAA7J2A1H0SYV6RZ</t>
+  </si>
+  <si>
+    <t>EDGK7U4E1S286JBZJ</t>
+  </si>
+  <si>
+    <t>LXM3DFTSX4WY34RAT</t>
+  </si>
+  <si>
+    <t>AA6B17JD5B47B755K</t>
+  </si>
+  <si>
+    <t>C4465ASX0XXXLGMNZ</t>
+  </si>
+  <si>
+    <t>HED75A537S1VDL90J</t>
+  </si>
+  <si>
+    <t>HM4U6G9M04FSCZG06</t>
+  </si>
+  <si>
+    <t>2P0VAAY1XY27A5TA6</t>
+  </si>
+  <si>
+    <t>421BKW7Y2N5NG15BF</t>
+  </si>
+  <si>
+    <t>KFBJUK3E14G9LNN6U</t>
+  </si>
+  <si>
+    <t>6PDPGXEG5H1NNGD6F</t>
+  </si>
+  <si>
+    <t>FE7UHK240CB9X6ZYD</t>
+  </si>
+  <si>
+    <t>H9WBDD3473DJRSCK4</t>
+  </si>
+  <si>
+    <t>0MLB1DJ86YJAUE25W</t>
+  </si>
+  <si>
+    <t>J4K8MJDB4V1T8Z4PC</t>
+  </si>
+  <si>
+    <t>RGMCW2PUXM838Z5UB</t>
+  </si>
+  <si>
+    <t>B131YBDS8YL9BNKB8</t>
+  </si>
+  <si>
+    <t>12YNWSYR3BYFR3BPW</t>
+  </si>
+  <si>
+    <t>XJPRA0CE0T25FJA8T</t>
+  </si>
+  <si>
+    <t>L2CPZWDZ8RPFAC4FB</t>
+  </si>
+  <si>
+    <t>1Z6CACRD6Z3JTD5WV</t>
+  </si>
+  <si>
+    <t>NFB490W41HA51SSGJ</t>
+  </si>
+  <si>
+    <t>G33MVVXM1YCX4GB55</t>
+  </si>
+  <si>
+    <t>GZLBHK111X08GZA2T</t>
+  </si>
+  <si>
+    <t>MJ8G9K676DWZAH09A</t>
+  </si>
+  <si>
+    <t>R8JAC7X24V6SDFWKP</t>
+  </si>
+  <si>
+    <t>624B9AHN18TMMC9HT</t>
+  </si>
+  <si>
+    <t>UTJG07K96JCC3M421</t>
+  </si>
+  <si>
+    <t>BDHW01WZ29KNKJFF1</t>
+  </si>
+  <si>
+    <t>2CYS2RT4769TN7F7P</t>
+  </si>
+  <si>
+    <t>Curtis Miller</t>
+  </si>
+  <si>
+    <t>Joseph Walsh</t>
+  </si>
+  <si>
+    <t>Kimberly Gordon</t>
+  </si>
+  <si>
+    <t>Caitlin Jensen</t>
+  </si>
+  <si>
+    <t>Valerie Thompson</t>
+  </si>
+  <si>
+    <t>Antonio Bishop</t>
+  </si>
+  <si>
+    <t>Peggy Shaffer</t>
+  </si>
+  <si>
+    <t>Mary Perry</t>
+  </si>
+  <si>
+    <t>Darrell Brewer</t>
+  </si>
+  <si>
+    <t>Kelly Davis</t>
+  </si>
+  <si>
+    <t>Brittany Roth</t>
+  </si>
+  <si>
+    <t>David Thompson</t>
+  </si>
+  <si>
+    <t>Kevin Gray</t>
+  </si>
+  <si>
+    <t>Stacy Rodriguez</t>
+  </si>
+  <si>
+    <t>Ellen Holland</t>
+  </si>
+  <si>
+    <t>Sandra Vaughan</t>
+  </si>
+  <si>
+    <t>Justin Reese</t>
+  </si>
+  <si>
+    <t>Lori Miller</t>
+  </si>
+  <si>
+    <t>Sophia Gonzalez</t>
+  </si>
+  <si>
+    <t>Whitney Vasquez</t>
+  </si>
+  <si>
+    <t>Madison Buckley</t>
+  </si>
+  <si>
+    <t>Emily Coleman</t>
+  </si>
+  <si>
+    <t>Dr. Lisa Thompson PhD</t>
+  </si>
+  <si>
+    <t>Steven Martinez</t>
+  </si>
+  <si>
+    <t>Sherry Bolton</t>
+  </si>
+  <si>
+    <t>Vincent Chavez</t>
+  </si>
+  <si>
+    <t>Maria King</t>
+  </si>
+  <si>
+    <t>Anthony Andrews</t>
+  </si>
+  <si>
+    <t>Willie Norman</t>
+  </si>
+  <si>
+    <t>Darren Manning</t>
+  </si>
+  <si>
+    <t>Melissa Weeks</t>
+  </si>
+  <si>
+    <t>Leroy Jones</t>
+  </si>
+  <si>
+    <t>Alexandria Smith</t>
+  </si>
+  <si>
+    <t>Phillip Bernard</t>
+  </si>
+  <si>
+    <t>Jeffrey Lee</t>
+  </si>
+  <si>
+    <t>Corey Johnson</t>
+  </si>
+  <si>
+    <t>William Thompson</t>
+  </si>
+  <si>
+    <t>Mia Morris</t>
+  </si>
+  <si>
+    <t>Suzanne Townsend</t>
+  </si>
+  <si>
+    <t>Janice Hughes</t>
+  </si>
+  <si>
+    <t>Christine Mills</t>
+  </si>
+  <si>
+    <t>Shawn Porter</t>
+  </si>
+  <si>
+    <t>Barbara Morrison</t>
+  </si>
+  <si>
+    <t>Stephanie Allen</t>
+  </si>
+  <si>
+    <t>Sue Galvan</t>
   </si>
   <si>
     <t>KLSE</t>
@@ -698,7 +692,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F228"/>
+  <dimension ref="A1:F238"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -735,10 +729,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -752,10 +746,10 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -766,10 +760,10 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E4" t="s">
         <v>100</v>
@@ -783,10 +777,10 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E5" t="s">
         <v>101</v>
@@ -803,10 +797,10 @@
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E6" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -820,10 +814,10 @@
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -837,10 +831,10 @@
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -851,13 +845,13 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
         <v>55</v>
       </c>
       <c r="E9" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -868,13 +862,13 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
         <v>55</v>
       </c>
       <c r="E10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -885,13 +879,13 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
         <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -902,13 +896,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D12" t="s">
         <v>55</v>
       </c>
       <c r="E12" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -922,10 +916,10 @@
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -939,10 +933,10 @@
         <v>10</v>
       </c>
       <c r="D14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -953,13 +947,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D15" t="s">
         <v>56</v>
       </c>
       <c r="E15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -970,13 +964,13 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D16" t="s">
         <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -987,13 +981,13 @@
         <v>7</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
         <v>56</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1004,13 +998,13 @@
         <v>7</v>
       </c>
       <c r="C18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D18" t="s">
         <v>56</v>
       </c>
       <c r="E18" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1021,13 +1015,13 @@
         <v>7</v>
       </c>
       <c r="C19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D19" t="s">
         <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1038,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="C20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D20" t="s">
         <v>56</v>
       </c>
       <c r="E20" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1055,13 +1049,13 @@
         <v>7</v>
       </c>
       <c r="C21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D21" t="s">
         <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1075,10 +1069,10 @@
         <v>11</v>
       </c>
       <c r="D22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1089,13 +1083,13 @@
         <v>7</v>
       </c>
       <c r="C23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D23" t="s">
         <v>57</v>
       </c>
       <c r="E23" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1106,13 +1100,13 @@
         <v>7</v>
       </c>
       <c r="C24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s">
         <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1123,13 +1117,13 @@
         <v>7</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s">
         <v>57</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1140,13 +1134,13 @@
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D26" t="s">
         <v>57</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1157,13 +1151,13 @@
         <v>7</v>
       </c>
       <c r="C27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
         <v>57</v>
       </c>
       <c r="E27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1174,13 +1168,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
         <v>57</v>
       </c>
       <c r="E28" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1191,13 +1185,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D29" t="s">
         <v>57</v>
       </c>
       <c r="E29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1208,13 +1202,13 @@
         <v>7</v>
       </c>
       <c r="C30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D30" t="s">
         <v>57</v>
       </c>
       <c r="E30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1228,10 +1222,10 @@
         <v>12</v>
       </c>
       <c r="D31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E31" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1242,13 +1236,13 @@
         <v>7</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D32" t="s">
         <v>58</v>
       </c>
       <c r="E32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1259,13 +1253,13 @@
         <v>7</v>
       </c>
       <c r="C33" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
         <v>58</v>
       </c>
       <c r="E33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1276,13 +1270,13 @@
         <v>7</v>
       </c>
       <c r="C34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D34" t="s">
         <v>58</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1293,13 +1287,13 @@
         <v>7</v>
       </c>
       <c r="C35" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
         <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1310,13 +1304,13 @@
         <v>7</v>
       </c>
       <c r="C36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" t="s">
         <v>58</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1327,13 +1321,13 @@
         <v>7</v>
       </c>
       <c r="C37" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D37" t="s">
         <v>58</v>
       </c>
       <c r="E37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1347,10 +1341,10 @@
         <v>13</v>
       </c>
       <c r="D38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E38" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1364,10 +1358,10 @@
         <v>13</v>
       </c>
       <c r="D39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E39" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1381,10 +1375,10 @@
         <v>13</v>
       </c>
       <c r="D40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E40" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1395,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="C41" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D41" t="s">
         <v>59</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1412,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="C42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D42" t="s">
         <v>59</v>
       </c>
       <c r="E42" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1429,13 +1423,13 @@
         <v>7</v>
       </c>
       <c r="C43" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
         <v>59</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1446,13 +1440,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>59</v>
       </c>
       <c r="E44" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1463,13 +1457,13 @@
         <v>7</v>
       </c>
       <c r="C45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>59</v>
       </c>
       <c r="E45" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1483,10 +1477,10 @@
         <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1500,10 +1494,10 @@
         <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1514,13 +1508,13 @@
         <v>7</v>
       </c>
       <c r="C48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1534,10 +1528,10 @@
         <v>15</v>
       </c>
       <c r="D49" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E49" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1551,10 +1545,10 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1568,10 +1562,10 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E51" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1582,10 +1576,10 @@
         <v>7</v>
       </c>
       <c r="C52" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E52" t="s">
         <v>100</v>
@@ -1599,10 +1593,10 @@
         <v>7</v>
       </c>
       <c r="C53" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E53" t="s">
         <v>101</v>
@@ -1616,10 +1610,10 @@
         <v>7</v>
       </c>
       <c r="C54" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E54" t="s">
         <v>102</v>
@@ -1636,10 +1630,10 @@
         <v>17</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1650,13 +1644,13 @@
         <v>7</v>
       </c>
       <c r="C56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D56" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E56" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1667,13 +1661,13 @@
         <v>7</v>
       </c>
       <c r="C57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D57" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1684,13 +1678,13 @@
         <v>7</v>
       </c>
       <c r="C58" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D58" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1704,10 +1698,10 @@
         <v>18</v>
       </c>
       <c r="D59" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1718,13 +1712,13 @@
         <v>7</v>
       </c>
       <c r="C60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D60" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1735,13 +1729,13 @@
         <v>7</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E61" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1752,13 +1746,13 @@
         <v>7</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D62" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E62" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1772,10 +1766,10 @@
         <v>19</v>
       </c>
       <c r="D63" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1789,10 +1783,10 @@
         <v>19</v>
       </c>
       <c r="D64" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E64" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1806,10 +1800,10 @@
         <v>19</v>
       </c>
       <c r="D65" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1820,13 +1814,13 @@
         <v>7</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D66" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1837,13 +1831,13 @@
         <v>7</v>
       </c>
       <c r="C67" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1854,13 +1848,13 @@
         <v>7</v>
       </c>
       <c r="C68" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D68" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1871,13 +1865,13 @@
         <v>7</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D69" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E69" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1888,13 +1882,13 @@
         <v>7</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D70" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1908,10 +1902,10 @@
         <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E71" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1925,10 +1919,10 @@
         <v>20</v>
       </c>
       <c r="D72" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E72" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1942,10 +1936,10 @@
         <v>20</v>
       </c>
       <c r="D73" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1959,10 +1953,10 @@
         <v>20</v>
       </c>
       <c r="D74" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E74" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1973,13 +1967,13 @@
         <v>7</v>
       </c>
       <c r="C75" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D75" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E75" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1990,13 +1984,13 @@
         <v>7</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D76" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E76" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2010,10 +2004,10 @@
         <v>21</v>
       </c>
       <c r="D77" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E77" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2027,10 +2021,10 @@
         <v>21</v>
       </c>
       <c r="D78" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2044,10 +2038,10 @@
         <v>21</v>
       </c>
       <c r="D79" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E79" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2061,10 +2055,10 @@
         <v>21</v>
       </c>
       <c r="D80" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E80" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2078,10 +2072,10 @@
         <v>21</v>
       </c>
       <c r="D81" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E81" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2092,13 +2086,13 @@
         <v>7</v>
       </c>
       <c r="C82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2112,10 +2106,10 @@
         <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E83" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2129,10 +2123,10 @@
         <v>22</v>
       </c>
       <c r="D84" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E84" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2146,10 +2140,10 @@
         <v>22</v>
       </c>
       <c r="D85" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2163,10 +2157,10 @@
         <v>22</v>
       </c>
       <c r="D86" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E86" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2177,13 +2171,13 @@
         <v>7</v>
       </c>
       <c r="C87" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2194,13 +2188,13 @@
         <v>7</v>
       </c>
       <c r="C88" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E88" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2211,13 +2205,13 @@
         <v>7</v>
       </c>
       <c r="C89" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D89" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E89" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2231,10 +2225,10 @@
         <v>23</v>
       </c>
       <c r="D90" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2248,10 +2242,10 @@
         <v>23</v>
       </c>
       <c r="D91" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E91" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2265,10 +2259,10 @@
         <v>23</v>
       </c>
       <c r="D92" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E92" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2282,10 +2276,10 @@
         <v>23</v>
       </c>
       <c r="D93" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E93" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2296,13 +2290,13 @@
         <v>7</v>
       </c>
       <c r="C94" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D94" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E94" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2313,13 +2307,13 @@
         <v>7</v>
       </c>
       <c r="C95" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="E95" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2330,13 +2324,13 @@
         <v>7</v>
       </c>
       <c r="C96" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E96" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2347,13 +2341,13 @@
         <v>7</v>
       </c>
       <c r="C97" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D97" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E97" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2367,10 +2361,10 @@
         <v>25</v>
       </c>
       <c r="D98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2384,10 +2378,10 @@
         <v>25</v>
       </c>
       <c r="D99" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E99" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2398,10 +2392,10 @@
         <v>7</v>
       </c>
       <c r="C100" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D100" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E100" t="s">
         <v>100</v>
@@ -2418,10 +2412,10 @@
         <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E101" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2432,13 +2426,13 @@
         <v>7</v>
       </c>
       <c r="C102" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D102" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2449,13 +2443,13 @@
         <v>7</v>
       </c>
       <c r="C103" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D103" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2466,13 +2460,13 @@
         <v>7</v>
       </c>
       <c r="C104" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D104" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2483,13 +2477,13 @@
         <v>7</v>
       </c>
       <c r="C105" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D105" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2500,13 +2494,13 @@
         <v>7</v>
       </c>
       <c r="C106" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D106" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E106" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2517,13 +2511,13 @@
         <v>7</v>
       </c>
       <c r="C107" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D107" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E107" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2534,13 +2528,13 @@
         <v>7</v>
       </c>
       <c r="C108" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="D108" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E108" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2551,13 +2545,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E109" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2568,13 +2562,13 @@
         <v>7</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E110" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2585,13 +2579,13 @@
         <v>7</v>
       </c>
       <c r="C111" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E111" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2602,13 +2596,13 @@
         <v>7</v>
       </c>
       <c r="C112" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D112" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E112" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2619,13 +2613,13 @@
         <v>7</v>
       </c>
       <c r="C113" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D113" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E113" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2636,10 +2630,10 @@
         <v>7</v>
       </c>
       <c r="C114" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D114" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E114" t="s">
         <v>100</v>
@@ -2653,10 +2647,10 @@
         <v>7</v>
       </c>
       <c r="C115" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D115" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E115" t="s">
         <v>101</v>
@@ -2670,10 +2664,10 @@
         <v>7</v>
       </c>
       <c r="C116" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E116" t="s">
         <v>102</v>
@@ -2687,10 +2681,10 @@
         <v>7</v>
       </c>
       <c r="C117" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D117" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E117" t="s">
         <v>103</v>
@@ -2704,10 +2698,10 @@
         <v>7</v>
       </c>
       <c r="C118" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D118" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E118" t="s">
         <v>104</v>
@@ -2721,10 +2715,10 @@
         <v>7</v>
       </c>
       <c r="C119" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D119" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E119" t="s">
         <v>105</v>
@@ -2738,13 +2732,13 @@
         <v>7</v>
       </c>
       <c r="C120" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D120" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E120" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2755,13 +2749,13 @@
         <v>7</v>
       </c>
       <c r="C121" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D121" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E121" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2775,10 +2769,10 @@
         <v>30</v>
       </c>
       <c r="D122" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E122" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2789,13 +2783,13 @@
         <v>7</v>
       </c>
       <c r="C123" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D123" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E123" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2806,13 +2800,13 @@
         <v>7</v>
       </c>
       <c r="C124" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D124" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E124" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2823,13 +2817,13 @@
         <v>7</v>
       </c>
       <c r="C125" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D125" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E125" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2840,13 +2834,13 @@
         <v>7</v>
       </c>
       <c r="C126" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D126" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2857,13 +2851,13 @@
         <v>7</v>
       </c>
       <c r="C127" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D127" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E127" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2874,13 +2868,13 @@
         <v>7</v>
       </c>
       <c r="C128" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E128" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2891,13 +2885,13 @@
         <v>7</v>
       </c>
       <c r="C129" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D129" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E129" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2908,13 +2902,13 @@
         <v>7</v>
       </c>
       <c r="C130" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D130" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E130" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2925,13 +2919,13 @@
         <v>7</v>
       </c>
       <c r="C131" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D131" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E131" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2942,13 +2936,13 @@
         <v>7</v>
       </c>
       <c r="C132" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D132" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E132" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2959,13 +2953,13 @@
         <v>7</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D133" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E133" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2976,13 +2970,13 @@
         <v>7</v>
       </c>
       <c r="C134" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D134" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E134" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2993,13 +2987,13 @@
         <v>7</v>
       </c>
       <c r="C135" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E135" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3010,13 +3004,13 @@
         <v>7</v>
       </c>
       <c r="C136" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D136" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E136" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3027,13 +3021,13 @@
         <v>7</v>
       </c>
       <c r="C137" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D137" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E137" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3044,13 +3038,13 @@
         <v>7</v>
       </c>
       <c r="C138" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D138" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E138" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3061,13 +3055,13 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D139" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E139" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3081,10 +3075,10 @@
         <v>35</v>
       </c>
       <c r="D140" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E140" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3095,13 +3089,13 @@
         <v>7</v>
       </c>
       <c r="C141" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D141" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E141" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3112,13 +3106,13 @@
         <v>7</v>
       </c>
       <c r="C142" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D142" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E142" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3129,13 +3123,13 @@
         <v>7</v>
       </c>
       <c r="C143" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D143" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E143" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3146,13 +3140,13 @@
         <v>7</v>
       </c>
       <c r="C144" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D144" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E144" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3163,13 +3157,13 @@
         <v>7</v>
       </c>
       <c r="C145" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D145" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E145" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3180,13 +3174,13 @@
         <v>7</v>
       </c>
       <c r="C146" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D146" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E146" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3200,10 +3194,10 @@
         <v>36</v>
       </c>
       <c r="D147" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E147" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3217,10 +3211,10 @@
         <v>36</v>
       </c>
       <c r="D148" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E148" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3234,10 +3228,10 @@
         <v>36</v>
       </c>
       <c r="D149" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E149" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3248,13 +3242,13 @@
         <v>7</v>
       </c>
       <c r="C150" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D150" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E150" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3268,10 +3262,10 @@
         <v>37</v>
       </c>
       <c r="D151" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E151" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3285,10 +3279,10 @@
         <v>37</v>
       </c>
       <c r="D152" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E152" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3302,10 +3296,10 @@
         <v>37</v>
       </c>
       <c r="D153" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E153" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3319,10 +3313,10 @@
         <v>37</v>
       </c>
       <c r="D154" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E154" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3333,13 +3327,13 @@
         <v>7</v>
       </c>
       <c r="C155" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D155" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E155" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3353,10 +3347,10 @@
         <v>38</v>
       </c>
       <c r="D156" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E156" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3370,10 +3364,10 @@
         <v>38</v>
       </c>
       <c r="D157" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E157" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3384,10 +3378,10 @@
         <v>7</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D158" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E158" t="s">
         <v>100</v>
@@ -3401,10 +3395,10 @@
         <v>7</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D159" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E159" t="s">
         <v>101</v>
@@ -3418,10 +3412,10 @@
         <v>7</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D160" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E160" t="s">
         <v>102</v>
@@ -3435,10 +3429,10 @@
         <v>7</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D161" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E161" t="s">
         <v>103</v>
@@ -3455,10 +3449,10 @@
         <v>39</v>
       </c>
       <c r="D162" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E162" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3472,10 +3466,10 @@
         <v>39</v>
       </c>
       <c r="D163" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E163" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3489,10 +3483,10 @@
         <v>39</v>
       </c>
       <c r="D164" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E164" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3503,13 +3497,13 @@
         <v>7</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E165" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3520,13 +3514,13 @@
         <v>7</v>
       </c>
       <c r="C166" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D166" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E166" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -3537,13 +3531,13 @@
         <v>7</v>
       </c>
       <c r="C167" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D167" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E167" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -3554,13 +3548,13 @@
         <v>7</v>
       </c>
       <c r="C168" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D168" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E168" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -3571,13 +3565,13 @@
         <v>7</v>
       </c>
       <c r="C169" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D169" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E169" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -3591,10 +3585,10 @@
         <v>40</v>
       </c>
       <c r="D170" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E170" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -3605,13 +3599,13 @@
         <v>7</v>
       </c>
       <c r="C171" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D171" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E171" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -3622,13 +3616,13 @@
         <v>7</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D172" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E172" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -3639,13 +3633,13 @@
         <v>7</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E173" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -3656,13 +3650,13 @@
         <v>7</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D174" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E174" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -3673,13 +3667,13 @@
         <v>7</v>
       </c>
       <c r="C175" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D175" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="E175" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -3690,13 +3684,13 @@
         <v>7</v>
       </c>
       <c r="C176" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E176" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -3707,13 +3701,13 @@
         <v>7</v>
       </c>
       <c r="C177" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D177" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E177" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -3724,13 +3718,13 @@
         <v>7</v>
       </c>
       <c r="C178" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D178" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E178" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -3741,13 +3735,13 @@
         <v>7</v>
       </c>
       <c r="C179" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E179" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -3758,13 +3752,13 @@
         <v>7</v>
       </c>
       <c r="C180" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D180" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E180" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -3775,13 +3769,13 @@
         <v>7</v>
       </c>
       <c r="C181" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D181" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E181" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -3792,13 +3786,13 @@
         <v>7</v>
       </c>
       <c r="C182" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D182" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E182" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -3809,13 +3803,13 @@
         <v>7</v>
       </c>
       <c r="C183" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E183" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -3826,13 +3820,13 @@
         <v>7</v>
       </c>
       <c r="C184" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D184" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E184" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -3843,13 +3837,13 @@
         <v>7</v>
       </c>
       <c r="C185" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D185" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E185" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -3860,13 +3854,13 @@
         <v>7</v>
       </c>
       <c r="C186" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D186" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="E186" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -3877,13 +3871,13 @@
         <v>7</v>
       </c>
       <c r="C187" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D187" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E187" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -3894,13 +3888,13 @@
         <v>7</v>
       </c>
       <c r="C188" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D188" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E188" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -3911,13 +3905,13 @@
         <v>7</v>
       </c>
       <c r="C189" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D189" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E189" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -3928,13 +3922,13 @@
         <v>7</v>
       </c>
       <c r="C190" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E190" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -3945,13 +3939,13 @@
         <v>7</v>
       </c>
       <c r="C191" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D191" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E191" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -3962,13 +3956,13 @@
         <v>7</v>
       </c>
       <c r="C192" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D192" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E192" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -3979,13 +3973,13 @@
         <v>7</v>
       </c>
       <c r="C193" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D193" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E193" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -3996,13 +3990,13 @@
         <v>7</v>
       </c>
       <c r="C194" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D194" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E194" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4016,10 +4010,10 @@
         <v>45</v>
       </c>
       <c r="D195" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E195" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4030,13 +4024,13 @@
         <v>7</v>
       </c>
       <c r="C196" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D196" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E196" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4047,13 +4041,13 @@
         <v>7</v>
       </c>
       <c r="C197" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D197" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E197" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4064,13 +4058,13 @@
         <v>7</v>
       </c>
       <c r="C198" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D198" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E198" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4081,13 +4075,13 @@
         <v>7</v>
       </c>
       <c r="C199" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D199" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E199" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4098,13 +4092,13 @@
         <v>7</v>
       </c>
       <c r="C200" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D200" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E200" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4115,13 +4109,13 @@
         <v>7</v>
       </c>
       <c r="C201" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D201" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E201" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4135,10 +4129,10 @@
         <v>47</v>
       </c>
       <c r="D202" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E202" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4152,10 +4146,10 @@
         <v>47</v>
       </c>
       <c r="D203" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E203" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4166,10 +4160,10 @@
         <v>7</v>
       </c>
       <c r="C204" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D204" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E204" t="s">
         <v>100</v>
@@ -4183,10 +4177,10 @@
         <v>7</v>
       </c>
       <c r="C205" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D205" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E205" t="s">
         <v>101</v>
@@ -4200,10 +4194,10 @@
         <v>7</v>
       </c>
       <c r="C206" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D206" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E206" t="s">
         <v>102</v>
@@ -4217,10 +4211,10 @@
         <v>7</v>
       </c>
       <c r="C207" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D207" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E207" t="s">
         <v>103</v>
@@ -4234,10 +4228,10 @@
         <v>7</v>
       </c>
       <c r="C208" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D208" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E208" t="s">
         <v>104</v>
@@ -4251,13 +4245,13 @@
         <v>7</v>
       </c>
       <c r="C209" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D209" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E209" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4268,13 +4262,13 @@
         <v>7</v>
       </c>
       <c r="C210" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D210" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="E210" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4285,13 +4279,13 @@
         <v>7</v>
       </c>
       <c r="C211" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D211" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E211" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4305,10 +4299,10 @@
         <v>49</v>
       </c>
       <c r="D212" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E212" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4319,13 +4313,13 @@
         <v>7</v>
       </c>
       <c r="C213" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D213" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E213" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4336,13 +4330,13 @@
         <v>7</v>
       </c>
       <c r="C214" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D214" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E214" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4353,13 +4347,13 @@
         <v>7</v>
       </c>
       <c r="C215" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D215" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E215" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4370,13 +4364,13 @@
         <v>7</v>
       </c>
       <c r="C216" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D216" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E216" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4387,13 +4381,13 @@
         <v>7</v>
       </c>
       <c r="C217" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D217" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E217" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4404,13 +4398,13 @@
         <v>7</v>
       </c>
       <c r="C218" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D218" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E218" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4421,13 +4415,13 @@
         <v>7</v>
       </c>
       <c r="C219" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D219" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E219" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4438,13 +4432,13 @@
         <v>7</v>
       </c>
       <c r="C220" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D220" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E220" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4455,13 +4449,13 @@
         <v>7</v>
       </c>
       <c r="C221" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D221" t="s">
+        <v>95</v>
+      </c>
+      <c r="E221" t="s">
         <v>98</v>
-      </c>
-      <c r="E221" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4472,13 +4466,13 @@
         <v>7</v>
       </c>
       <c r="C222" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D222" t="s">
+        <v>96</v>
+      </c>
+      <c r="E222" t="s">
         <v>98</v>
-      </c>
-      <c r="E222" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4489,13 +4483,13 @@
         <v>7</v>
       </c>
       <c r="C223" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D223" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E223" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4506,13 +4500,13 @@
         <v>7</v>
       </c>
       <c r="C224" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D224" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E224" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4523,13 +4517,13 @@
         <v>7</v>
       </c>
       <c r="C225" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D225" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E225" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -4540,13 +4534,13 @@
         <v>7</v>
       </c>
       <c r="C226" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D226" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E226" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -4557,13 +4551,13 @@
         <v>7</v>
       </c>
       <c r="C227" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D227" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E227" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -4574,13 +4568,183 @@
         <v>7</v>
       </c>
       <c r="C228" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D228" t="s">
+        <v>96</v>
+      </c>
+      <c r="E228" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5">
+      <c r="A229" t="s">
+        <v>6</v>
+      </c>
+      <c r="B229" t="s">
+        <v>7</v>
+      </c>
+      <c r="C229" t="s">
+        <v>51</v>
+      </c>
+      <c r="D229" t="s">
+        <v>96</v>
+      </c>
+      <c r="E229" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5">
+      <c r="A230" t="s">
+        <v>6</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>51</v>
+      </c>
+      <c r="D230" t="s">
+        <v>96</v>
+      </c>
+      <c r="E230" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5">
+      <c r="A231" t="s">
+        <v>6</v>
+      </c>
+      <c r="B231" t="s">
+        <v>7</v>
+      </c>
+      <c r="C231" t="s">
+        <v>52</v>
+      </c>
+      <c r="D231" t="s">
+        <v>97</v>
+      </c>
+      <c r="E231" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5">
+      <c r="A232" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" t="s">
+        <v>52</v>
+      </c>
+      <c r="D232" t="s">
+        <v>97</v>
+      </c>
+      <c r="E232" t="s">
         <v>99</v>
       </c>
-      <c r="E228" t="s">
+    </row>
+    <row r="233" spans="1:5">
+      <c r="A233" t="s">
+        <v>6</v>
+      </c>
+      <c r="B233" t="s">
+        <v>7</v>
+      </c>
+      <c r="C233" t="s">
+        <v>52</v>
+      </c>
+      <c r="D233" t="s">
+        <v>97</v>
+      </c>
+      <c r="E233" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5">
+      <c r="A234" t="s">
+        <v>6</v>
+      </c>
+      <c r="B234" t="s">
+        <v>7</v>
+      </c>
+      <c r="C234" t="s">
+        <v>52</v>
+      </c>
+      <c r="D234" t="s">
+        <v>97</v>
+      </c>
+      <c r="E234" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5">
+      <c r="A235" t="s">
+        <v>6</v>
+      </c>
+      <c r="B235" t="s">
+        <v>7</v>
+      </c>
+      <c r="C235" t="s">
+        <v>52</v>
+      </c>
+      <c r="D235" t="s">
+        <v>97</v>
+      </c>
+      <c r="E235" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5">
+      <c r="A236" t="s">
+        <v>6</v>
+      </c>
+      <c r="B236" t="s">
+        <v>7</v>
+      </c>
+      <c r="C236" t="s">
+        <v>52</v>
+      </c>
+      <c r="D236" t="s">
+        <v>97</v>
+      </c>
+      <c r="E236" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5">
+      <c r="A237" t="s">
+        <v>6</v>
+      </c>
+      <c r="B237" t="s">
+        <v>7</v>
+      </c>
+      <c r="C237" t="s">
+        <v>52</v>
+      </c>
+      <c r="D237" t="s">
+        <v>97</v>
+      </c>
+      <c r="E237" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5">
+      <c r="A238" t="s">
+        <v>6</v>
+      </c>
+      <c r="B238" t="s">
+        <v>7</v>
+      </c>
+      <c r="C238" t="s">
+        <v>52</v>
+      </c>
+      <c r="D238" t="s">
+        <v>97</v>
+      </c>
+      <c r="E238" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
